--- a/Doc/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/Doc/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P-app_183\Doc\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D53866-74B9-4333-A58A-AACB5E710FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF816A4A-220F-4701-A9A8-72C6FA47BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>Faire le trello et relir attentivement le cahier des charge + question docker file</t>
+  </si>
+  <si>
+    <t>Création du gitIgnore et test sur un fichier contenant un faut mdp</t>
+  </si>
+  <si>
+    <t>N'ayant jamais crée de .gitignore manuellement j'ai fait quelque  test sur la protection des MDP</t>
+  </si>
+  <si>
+    <t>ce renseigner sur lea méthode de salt cryptography : https://en.wikipedia.org/wiki/Salt_(cryptography)</t>
+  </si>
+  <si>
+    <t>Faire les shémas globaux et du webSite sur figma (GitHub\P-app_183\Doc\WIP\schemas)</t>
+  </si>
+  <si>
+    <t>Temps : 2h30 par jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installer docker, commencer l'intro du rapport, étudier les fichier docker de CSR </t>
+  </si>
+  <si>
+    <t>J'ai envoier le lien du Trello à CSR mais le voici : https://tinyurl.com/t5w95m7x</t>
   </si>
 </sst>
 </file>
@@ -567,7 +588,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
@@ -579,7 +600,7 @@
     <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="77.25" customWidth="1"/>
+    <col min="6" max="6" width="84.875" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
@@ -634,7 +655,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>4.3749999999999997E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -644,6 +665,11 @@
       </c>
       <c r="F3" s="13">
         <v>45373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -738,27 +764,63 @@
       <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="15">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45373</v>
+      </c>
+      <c r="C10" s="23">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="15">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>45373</v>
+      </c>
+      <c r="C11" s="23">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="9">
+        <v>45373</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">

--- a/Doc/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/Doc/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P-app_183\Doc\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF816A4A-220F-4701-A9A8-72C6FA47BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04367F77-4564-4A6A-B8AA-EDA4F0C91D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -136,6 +136,15 @@
   <si>
     <t>J'ai envoier le lien du Trello à CSR mais le voici : https://tinyurl.com/t5w95m7x</t>
   </si>
+  <si>
+    <t>discution convocation samedi avec CSR</t>
+  </si>
+  <si>
+    <t>Crée un code qui permet de hash un mdp grace à crypto-js</t>
+  </si>
+  <si>
+    <t>lien doc utilisée : https://www.npmjs.com/package/crypto-js</t>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +197,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -212,10 +229,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,8 +285,12 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -588,9 +610,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,7 +677,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>0.10416666666666666</v>
+        <v>0.16458333333333333</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -809,6 +831,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>12</v>
+      </c>
       <c r="B12" s="9">
         <v>45373</v>
       </c>
@@ -824,18 +849,42 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="15">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C13" s="23">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="15">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C14" s="23">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
@@ -6539,35 +6588,18 @@
       <formula1>$I$2:$N$2</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.npmjs.com/package/crypto-js" xr:uid="{906AF64D-BADD-42B5-90CF-E6A2AD12ACFB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6790,26 +6822,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6826,4 +6859,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/Doc/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P-app_183\Doc\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04367F77-4564-4A6A-B8AA-EDA4F0C91D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F99B6-56E3-4752-B4F8-4C18F9F7F264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>lien doc utilisée : https://www.npmjs.com/package/crypto-js</t>
+  </si>
+  <si>
+    <t>1) j'ai travaillé avec les mauvais fichiers pour le backend et docker ce qui ma grandement poser problème 2) une fois que je me suis rendu compte de mon erreur j'ai changé de fichier et je me suis rendu compte qu'ils ne me convenaient pas je decide donc de crée mon propre backend que j'adapterais aux dockers fournies par CSR</t>
+  </si>
+  <si>
+    <t>J'ai avancer sur le nouveau backend, il me reste l'authentification et les test insomnia/postman a effectuer</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -677,7 +683,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>0.16458333333333333</v>
+        <v>0.23402777777777778</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -887,17 +893,34 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C15" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="23">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6600,6 +6623,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6822,27 +6865,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6859,23 +6901,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doc/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
+++ b/Doc/WIP/Journal-de-Travail_Lordon-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P-app_183\Doc\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F99B6-56E3-4752-B4F8-4C18F9F7F264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462BB1BB-FDB2-47E6-BFE4-9F9E88388508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="3990" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>J'ai avancer sur le nouveau backend, il me reste l'authentification et les test insomnia/postman a effectuer</t>
+  </si>
+  <si>
+    <t>J'ai du me remettre dans le projet. Ensuite j'ai avancer sur mon backend puis j'ai aidé adrian qui ne savait plus quoi faire pour le projet.</t>
+  </si>
+  <si>
+    <t>Après le passage de tiago il ma dis qu'il ne faut pas faire de mock n'y de model donc je repart à zero, j'ai dû comprendre la route de login déjà crée ensuite on a reçu nos bultin semestriel.</t>
+  </si>
+  <si>
+    <t>Je bloque sur la connection</t>
+  </si>
+  <si>
+    <t>Je me rend compte que je n'ai pas la bonne version ducoup j'ai chercher la bonne puis commencer a tester la conection</t>
+  </si>
+  <si>
+    <t>j'arrive enfin a démarrer via npm start j'ai des erreur de port mais je suis sur la bonne voie</t>
+  </si>
+  <si>
+    <t>Erreur de port réglée,ethan ma aidée a gérer mon erreur de tocken</t>
   </si>
 </sst>
 </file>
@@ -617,8 +635,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,7 +701,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>0.23402777777777778</v>
+        <v>0.29652777777777783</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -911,7 +929,12 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="A16" s="15">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>45401</v>
+      </c>
       <c r="C16" s="23">
         <v>2.7777777777777776E-2</v>
       </c>
@@ -924,65 +947,117 @@
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+      <c r="A17" s="15">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="15">
+        <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
+      <c r="A19" s="15">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="str">
+      <c r="A20" s="15">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="str">
+      <c r="A21" s="15">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="15">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6623,26 +6698,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6865,26 +6920,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6901,4 +6957,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>